--- a/Homework/RMPP/Unit 7 inferential statistics workshop exercises 7.1 and 7.2.xlsx
+++ b/Homework/RMPP/Unit 7 inferential statistics workshop exercises 7.1 and 7.2.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7170" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410" tabRatio="705"/>
   </bookViews>
   <sheets>
-    <sheet name="Related test exercise dataSet F" sheetId="1" r:id="rId1"/>
-    <sheet name="Exercise 7.1 DataSet G" sheetId="3" r:id="rId2"/>
-    <sheet name="Exercise 7.2 DataSet C" sheetId="5" r:id="rId3"/>
-    <sheet name="IndependenttestexercisedatasetB" sheetId="4" r:id="rId4"/>
+    <sheet name="Related sample t test dataSet F" sheetId="1" r:id="rId1"/>
+    <sheet name="IndependentSample t test dsetB" sheetId="4" r:id="rId2"/>
+    <sheet name="Exercise 7.1 DataSet G" sheetId="3" r:id="rId3"/>
+    <sheet name="Exercise 7.2 DataSet C" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -122,34 +122,6 @@
         <charset val="238"/>
       </rPr>
       <t>The market research staff at a detergent manufacturing company is considering two new, different container designs for a kitchen cleaning product. A pilot study was conducted by placing both containers of the product on sale at the same price in a sample of 10 retail stores for a fixed period of time. The numbers of items of the product sold were recorded for each container design.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">CONCLUSION:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>The data therefore constitute strong evidence (on a one-tailed test) that the underlying mean number of
-containers sold was greater for Design 1, by an estimated 172.6 - 159.4 = 13.2 items per store. The
-results continue to suggest that Design 1 should be preferred. Although broadly similar conclusions
-were reached as before, a higher level of significance was obtained with the one-tailed test.
-Notice that if we had sought to test the alternative pair of one-tailed hypotheses H0: 1 ≥ 2 against H1:
-1 &lt; 2 we would have found the difference in sample means to be consistent with the null hypothesis
-that the population mean sales for Design 2 was no greater than that for Design 1. We would thus have
-declared the result to be not significant without even bothering to inspect the p-value.</t>
     </r>
   </si>
   <si>
@@ -278,6 +250,34 @@
   </si>
   <si>
     <t>Test run under one-tailed test shows that first filter agent is more effective as its p value is lower than 0.05. There is 0.39 less impurity in Agent one, hence it appears to be more effective. However, considering two tailed test. The results show that there is no significant difference in means, meaning we cannot say that two agents are different when it comes to assessing the impurity.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">CONCLUSION:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>The data therefore constitute strong evidence (on a one-tailed test) that the underlying mean number of
+containers sold was greater for Design 1, by an estimated 172.6 - 159.4 = 13.2 items per store. The 
+results continue to suggest that Design 1 should be preferred. Although broadly similar conclusions
+were reached as before, a higher level of significance was obtained with the one-tailed test.
+Notice that if we had sought to test the alternative pair of one-tailed hypotheses H0: 1 ≥ 2 against H1:
+1 &lt; 2 we would have found the difference in sample means to be consistent with the null hypothesis
+that the population mean sales for Design 2 was no greater than that for Design 1. We would thus have
+declared the result to be not significant without even bothering to inspect the p-value.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -484,12 +484,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -796,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -807,7 +807,8 @@
     <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,10 +823,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -924,10 +925,10 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="23">
         <v>750.26666666666927</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="23">
         <v>789.37777777777717</v>
       </c>
     </row>
@@ -980,7 +981,7 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="23">
         <v>0.86333500407645425</v>
       </c>
     </row>
@@ -1055,7 +1056,7 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="23">
         <v>2.6569216614361122</v>
       </c>
     </row>
@@ -1080,7 +1081,7 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="23">
         <v>1.3088765233902948E-2</v>
       </c>
     </row>
@@ -1093,7 +1094,7 @@
       <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="23">
         <v>1.8331129326562374</v>
       </c>
     </row>
@@ -1105,7 +1106,7 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="23">
         <v>2.6177530467805896E-2</v>
       </c>
     </row>
@@ -1113,7 +1114,7 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="23">
         <v>2.2621571627982053</v>
       </c>
     </row>
@@ -1126,14 +1127,14 @@
         <v>13.199999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>24</v>
+    <row r="22" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1145,6 +1146,938 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14">
+        <v>3.7090000000000001</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="14">
+        <v>7.0869999999999997</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="14">
+        <v>6.7539999999999996</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14">
+        <v>8.9939999999999998</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="14">
+        <v>9.077</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="14">
+        <v>6.4130000000000003</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5.8769999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2.5720000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14">
+        <v>6.8810000000000002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14">
+        <v>7.2649999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="14">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3.7549999999999999</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5.3411999999999988</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.709960000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14">
+        <v>8.76</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>6.4292806122449173</v>
+      </c>
+      <c r="F15" s="5">
+        <v>7.6675935902040759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="14">
+        <v>7.032</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="14">
+        <v>9.0519999999999996</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5">
+        <v>49</v>
+      </c>
+      <c r="F17" s="5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="14">
+        <v>10.061999999999999</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.83850044171078708</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="14">
+        <v>4.84</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.26995147805846798</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14">
+        <v>6.4489999999999998</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.62216546750177781</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14">
+        <v>9.0190000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14">
+        <v>-1.7150000000000001</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="13">
+        <f>2*E19</f>
+        <v>0.53990295611693595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="14">
+        <v>4.718</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="14">
+        <v>4.0069999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="14">
+        <v>7.2409999999999997</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2.1280000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14">
+        <v>6.968</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>4.8529999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="14">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="14">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3.746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="14">
+        <v>7.0330000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="14">
+        <v>5.0330000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="14">
+        <v>5.569</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="14">
+        <v>6.7119999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="14">
+        <v>3.6629999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="14">
+        <v>2.7410000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="14">
+        <v>6.2560000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="14">
+        <v>5.3490000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="14">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="14">
+        <v>5.4450000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="14">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="14">
+        <v>3.613</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="14">
+        <v>7.5679999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="14">
+        <v>5.8609999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="14">
+        <v>4.157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="14">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="14">
+        <v>4.4409999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="14">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="14">
+        <v>5.7149999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="14">
+        <v>-1.087</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="14">
+        <v>1.819</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="14">
+        <v>1.7549999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="14">
+        <v>1.889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="14">
+        <v>3.089</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="14">
+        <v>4.008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="14">
+        <v>4.5510000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="14">
+        <v>1.3720000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="14">
+        <v>3.4129999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="14">
+        <v>-4.1479999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="14">
+        <v>2.823</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="14">
+        <v>2.8650000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="14">
+        <v>4.3689999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="14">
+        <v>6.3369999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="14">
+        <v>6.3079999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="14">
+        <v>3.4940000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="14">
+        <v>10.539</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="14">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="14">
+        <v>5.1230000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="14">
+        <v>5.4850000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="14">
+        <v>-1.8939999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="14">
+        <v>8.016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="14">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="14">
+        <v>3.8820000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="14">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="14">
+        <v>7.7270000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="14">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="14">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="14">
+        <v>4.5469999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="14">
+        <v>4.9850000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="14">
+        <v>5.1589999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="14">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="14">
+        <v>4.9340000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="14">
+        <v>3.1059999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="14">
+        <v>5.5979999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="14">
+        <v>2.1619999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="14">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="14">
+        <v>7.0460000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="14">
+        <v>1.7569999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="14">
+        <v>1.8480000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="14">
+        <v>1.0960000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="14">
+        <v>2.145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="14">
+        <v>8.4350000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="14">
+        <v>6.0990000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="14">
+        <v>3.972</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="14">
+        <v>2.4089999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="14">
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="14">
+        <v>7.0129999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="14">
+        <v>2.5939999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1400,28 +2333,28 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <f>F4-G4</f>
         <v>-0.38999999999999879</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="23" t="s">
+    </row>
+    <row r="18" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="B19" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +2365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
@@ -1448,18 +2381,18 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="15">
         <v>40.6</v>
@@ -1467,7 +2400,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="15">
         <v>54.6</v>
@@ -1482,7 +2415,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="15">
         <v>38.6</v>
@@ -1499,7 +2432,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="15">
         <v>58.2</v>
@@ -1516,7 +2449,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="15">
         <v>34.6</v>
@@ -1533,7 +2466,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="15">
         <v>42.9</v>
@@ -1550,13 +2483,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="15">
         <v>67.5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5">
         <v>1.2258602209314633</v>
@@ -1565,13 +2498,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="15">
         <v>79.8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5">
         <v>0.21824624019180686</v>
@@ -1580,13 +2513,13 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15">
         <v>54.4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6">
         <v>1.5399566074040778</v>
@@ -1595,7 +2528,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="15">
         <v>47.3</v>
@@ -1603,13 +2536,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="15">
         <v>66.400000000000006</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <f>2*E9</f>
@@ -1618,7 +2551,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="15">
         <v>69</v>
@@ -1626,18 +2559,18 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15">
         <v>62</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>49</v>
+      <c r="D14" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15">
         <v>52.5</v>
@@ -1645,7 +2578,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="15">
         <v>72.599999999999994</v>
@@ -1653,18 +2586,18 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="15">
         <v>52.4</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="15">
         <v>59.5</v>
@@ -1672,22 +2605,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="15">
         <v>59.1</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="15">
         <v>36.700000000000003</v>
@@ -1704,7 +2637,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="15">
         <v>54.6</v>
@@ -1721,7 +2654,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="15">
         <v>52.1</v>
@@ -1738,13 +2671,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="15">
         <v>49.9</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="5">
         <v>211.65239548022473</v>
@@ -1753,7 +2686,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="15">
         <v>52</v>
@@ -1768,7 +2701,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="15">
         <v>47.1</v>
@@ -1783,7 +2716,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="15">
         <v>40.799999999999997</v>
@@ -1798,7 +2731,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="15">
         <v>36.5</v>
@@ -1813,7 +2746,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="15">
         <v>57.1</v>
@@ -1828,7 +2761,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="15">
         <v>54.1</v>
@@ -1843,7 +2776,7 @@
     </row>
     <row r="30" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="15">
         <v>32.4</v>
@@ -1858,13 +2791,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="15">
         <v>34.9</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <f>E20-F20</f>
@@ -1873,7 +2806,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="15">
         <v>64.099999999999994</v>
@@ -1881,18 +2814,18 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="15">
         <v>54</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>45</v>
+      <c r="D33" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="15">
         <v>51.5</v>
@@ -1900,7 +2833,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="15">
         <v>50.8</v>
@@ -1908,7 +2841,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="15">
         <v>45.1</v>
@@ -1916,7 +2849,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="15">
         <v>81.5</v>
@@ -1924,7 +2857,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="15">
         <v>70.400000000000006</v>
@@ -1932,7 +2865,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="15">
         <v>39.200000000000003</v>
@@ -1940,7 +2873,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="15">
         <v>45.2</v>
@@ -1948,7 +2881,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="15">
         <v>80.900000000000006</v>
@@ -1956,7 +2889,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="15">
         <v>48.6</v>
@@ -1964,7 +2897,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="15">
         <v>31</v>
@@ -1972,7 +2905,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="15">
         <v>32.1</v>
@@ -1980,7 +2913,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="15">
         <v>33.9</v>
@@ -1988,7 +2921,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="15">
         <v>31.3</v>
@@ -1996,7 +2929,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="15">
         <v>51</v>
@@ -2004,7 +2937,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="15">
         <v>53.4</v>
@@ -2012,7 +2945,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="15">
         <v>58.3</v>
@@ -2020,7 +2953,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="15">
         <v>31.4</v>
@@ -2028,7 +2961,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="15">
         <v>56.3</v>
@@ -2036,7 +2969,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="15">
         <v>41</v>
@@ -2044,7 +2977,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="15">
         <v>47.9</v>
@@ -2052,7 +2985,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="15">
         <v>51.4</v>
@@ -2060,7 +2993,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="15">
         <v>33.1</v>
@@ -2068,7 +3001,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="15">
         <v>74.900000000000006</v>
@@ -2076,7 +3009,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="15">
         <v>77.2</v>
@@ -2084,7 +3017,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="15">
         <v>57.9</v>
@@ -2092,7 +3025,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="15">
         <v>80.099999999999994</v>
@@ -2100,7 +3033,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="15">
         <v>40.200000000000003</v>
@@ -2108,7 +3041,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="15">
         <v>100.9</v>
@@ -2116,7 +3049,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="15">
         <v>33.1</v>
@@ -2124,7 +3057,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63" s="15">
         <v>35.799999999999997</v>
@@ -2132,7 +3065,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64" s="15">
         <v>68.8</v>
@@ -2140,7 +3073,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B65" s="15">
         <v>31.6</v>
@@ -2148,7 +3081,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="15">
         <v>38.200000000000003</v>
@@ -2156,7 +3089,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" s="15">
         <v>42</v>
@@ -2164,7 +3097,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="15">
         <v>33.4</v>
@@ -2172,7 +3105,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" s="15">
         <v>50.3</v>
@@ -2180,7 +3113,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B70" s="15">
         <v>39.6</v>
@@ -2188,7 +3121,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B71" s="15">
         <v>30.7</v>
@@ -2196,7 +3129,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72" s="15">
         <v>31.3</v>
@@ -2204,7 +3137,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B73" s="15">
         <v>61.3</v>
@@ -2212,7 +3145,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="15">
         <v>30</v>
@@ -2220,7 +3153,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="15">
         <v>38.1</v>
@@ -2228,7 +3161,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B76" s="15">
         <v>56.4</v>
@@ -2236,7 +3169,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B77" s="15">
         <v>35.700000000000003</v>
@@ -2244,7 +3177,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B78" s="15">
         <v>31.3</v>
@@ -2252,7 +3185,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" s="15">
         <v>40.4</v>
@@ -2260,7 +3193,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="15">
         <v>32.1</v>
@@ -2268,7 +3201,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B81" s="15">
         <v>66.400000000000006</v>
@@ -2276,7 +3209,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B82" s="15">
         <v>36.9</v>
@@ -2284,7 +3217,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B83" s="15">
         <v>35.9</v>
@@ -2292,7 +3225,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="15">
         <v>49.6</v>
@@ -2300,7 +3233,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B85" s="15">
         <v>62.8</v>
@@ -2308,7 +3241,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" s="15">
         <v>44.6</v>
@@ -2316,7 +3249,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="15">
         <v>32.5</v>
@@ -2324,7 +3257,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="15">
         <v>33.4</v>
@@ -2332,7 +3265,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B89" s="15">
         <v>55.3</v>
@@ -2340,7 +3273,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="15">
         <v>62.7</v>
@@ -2348,7 +3281,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B91" s="15">
         <v>54.4</v>
@@ -2356,7 +3289,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" s="15">
         <v>30.8</v>
@@ -2364,7 +3297,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="15">
         <v>49.1</v>
@@ -2372,7 +3305,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" s="15">
         <v>41.9</v>
@@ -2380,7 +3313,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B95" s="15">
         <v>32.5</v>
@@ -2388,7 +3321,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B96" s="15">
         <v>35.200000000000003</v>
@@ -2396,7 +3329,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97" s="15">
         <v>47.4</v>
@@ -2404,7 +3337,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B98" s="15">
         <v>60.7</v>
@@ -2412,7 +3345,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B99" s="15">
         <v>33</v>
@@ -2420,7 +3353,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B100" s="15">
         <v>43.3</v>
@@ -2428,7 +3361,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B101" s="15">
         <v>34.799999999999997</v>
@@ -2436,7 +3369,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B102" s="15">
         <v>36</v>
@@ -2444,7 +3377,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B103" s="15">
         <v>51.6</v>
@@ -2452,7 +3385,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B104" s="15">
         <v>31.9</v>
@@ -2460,7 +3393,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B105" s="15">
         <v>34.1</v>
@@ -2468,7 +3401,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B106" s="15">
         <v>78.400000000000006</v>
@@ -2476,7 +3409,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B107" s="15">
         <v>30.4</v>
@@ -2484,7 +3417,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B108" s="15">
         <v>45.3</v>
@@ -2492,7 +3425,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B109" s="15">
         <v>52.6</v>
@@ -2500,7 +3433,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B110" s="15">
         <v>30.3</v>
@@ -2508,7 +3441,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B111" s="15">
         <v>36.6</v>
@@ -2516,7 +3449,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B112" s="15">
         <v>53.1</v>
@@ -2524,7 +3457,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B113" s="15">
         <v>36.5</v>
@@ -2532,7 +3465,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B114" s="15">
         <v>37.799999999999997</v>
@@ -2540,7 +3473,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B115" s="15">
         <v>34</v>
@@ -2548,7 +3481,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B116" s="15">
         <v>69.3</v>
@@ -2556,7 +3489,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B117" s="15">
         <v>77.2</v>
@@ -2564,7 +3497,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B118" s="15">
         <v>32.6</v>
@@ -2572,7 +3505,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B119" s="15">
         <v>82.9</v>
@@ -2580,7 +3513,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B120" s="15">
         <v>42.3</v>
@@ -2588,942 +3521,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B121" s="15">
         <v>57.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="14">
-        <v>3.7090000000000001</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="14">
-        <v>7.0869999999999997</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="14">
-        <v>6.7539999999999996</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="14">
-        <v>8.9939999999999998</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="14">
-        <v>9.077</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="14">
-        <v>6.4130000000000003</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="14">
-        <v>5.8769999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="14">
-        <v>2.5720000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="14">
-        <v>7.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14">
-        <v>6.8810000000000002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="14">
-        <v>7.2649999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14">
-        <v>3.4769999999999999</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="14">
-        <v>3.7549999999999999</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>5.3411999999999988</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3.709960000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="14">
-        <v>8.76</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>6.4292806122449173</v>
-      </c>
-      <c r="F15" s="5">
-        <v>7.6675935902040759</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="14">
-        <v>7.032</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="14">
-        <v>9.0519999999999996</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="5">
-        <v>49</v>
-      </c>
-      <c r="F17" s="5">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="14">
-        <v>10.061999999999999</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0.83850044171078708</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="14">
-        <v>4.84</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0.26995147805846798</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="14">
-        <v>6.4489999999999998</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.62216546750177781</v>
-      </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="14">
-        <v>9.0190000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="14">
-        <v>-1.7150000000000001</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="13">
-        <f>2*E19</f>
-        <v>0.53990295611693595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="14">
-        <v>4.718</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="14">
-        <v>4.0069999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="14">
-        <v>7.2409999999999997</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="14">
-        <v>2.1280000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="14">
-        <v>6.968</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="14">
-        <v>4.8529999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="14">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="14">
-        <v>3.746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="14">
-        <v>7.0330000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="14">
-        <v>5.0330000000000004</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="14">
-        <v>5.569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="14">
-        <v>6.7119999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="14">
-        <v>3.6629999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="14">
-        <v>2.7410000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="14">
-        <v>6.2560000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="14">
-        <v>5.3490000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="14">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="14">
-        <v>5.4450000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="14">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="14">
-        <v>3.613</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="14">
-        <v>7.5679999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="14">
-        <v>5.8609999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="14">
-        <v>4.157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="14">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="14">
-        <v>4.4409999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="14">
-        <v>5.875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="14">
-        <v>5.7149999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="14">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="14">
-        <v>-1.087</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="14">
-        <v>1.819</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="14">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="14">
-        <v>1.7549999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="14">
-        <v>1.889</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="14">
-        <v>3.089</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="14">
-        <v>4.008</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="14">
-        <v>4.5510000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="14">
-        <v>1.3720000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B61" s="14">
-        <v>3.4129999999999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="14">
-        <v>-4.1479999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B63" s="14">
-        <v>2.823</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="14">
-        <v>2.8650000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="14">
-        <v>4.3689999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="14">
-        <v>6.3369999999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B67" s="14">
-        <v>6.3079999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" s="14">
-        <v>3.4940000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B69" s="14">
-        <v>10.539</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="14">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B71" s="14">
-        <v>5.1230000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="14">
-        <v>5.4850000000000003</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="14">
-        <v>-1.8939999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B74" s="14">
-        <v>8.016</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="14">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="14">
-        <v>3.8820000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="14">
-        <v>7.03</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="14">
-        <v>7.7270000000000003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="14">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="14">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B81" s="14">
-        <v>4.5469999999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="14">
-        <v>4.9850000000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B83" s="14">
-        <v>5.1589999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B84" s="14">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="14">
-        <v>4.9340000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B86" s="14">
-        <v>3.1059999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="14">
-        <v>5.5979999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" s="14">
-        <v>2.1619999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="14">
-        <v>6.52</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="14">
-        <v>7.0460000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="14">
-        <v>1.7569999999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B92" s="14">
-        <v>1.8480000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B93" s="14">
-        <v>1.0960000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="14">
-        <v>2.145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" s="14">
-        <v>8.4350000000000005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B96" s="14">
-        <v>6.0990000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" s="14">
-        <v>3.972</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="14">
-        <v>2.4089999999999998</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B99" s="14">
-        <v>0.56899999999999995</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B100" s="14">
-        <v>7.0129999999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101" s="14">
-        <v>2.5939999999999999</v>
       </c>
     </row>
   </sheetData>
